--- a/Datasets_metadata.xlsx
+++ b/Datasets_metadata.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="222">
   <si>
     <t>AbnormalHeartbeat</t>
   </si>
@@ -657,6 +658,39 @@
   </si>
   <si>
     <t>dim</t>
+  </si>
+  <si>
+    <t>knn_ed</t>
+  </si>
+  <si>
+    <t>knn_dtw</t>
+  </si>
+  <si>
+    <t>knn_msm</t>
+  </si>
+  <si>
+    <t>pforest</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>tsf</t>
+  </si>
+  <si>
+    <t>weasel</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>inception</t>
+  </si>
+  <si>
+    <t>finished_algo</t>
   </si>
 </sst>
 </file>
@@ -686,7 +720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -746,11 +780,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -763,11 +838,534 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -813,7 +1411,7 @@
   <tableColumns count="9">
     <tableColumn id="1" name="dataset"/>
     <tableColumn id="7" name="uea_ucr"/>
-    <tableColumn id="8" name="in_both" dataDxfId="2">
+    <tableColumn id="8" name="in_both" dataDxfId="34">
       <calculatedColumnFormula>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="train_size"/>
@@ -822,6 +1420,44 @@
     <tableColumn id="5" name="num_classes"/>
     <tableColumn id="6" name="type"/>
     <tableColumn id="11" name="dim"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:P180" totalsRowShown="0">
+  <autoFilter ref="A1:P180">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Univariate"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:H179">
+    <sortCondition ref="A1:A179"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" name="dataset" dataDxfId="31"/>
+    <tableColumn id="7" name="uea_ucr" dataDxfId="30"/>
+    <tableColumn id="8" name="in_both" dataDxfId="29">
+      <calculatedColumnFormula>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="type" dataDxfId="28"/>
+    <tableColumn id="11" name="dim" dataDxfId="27"/>
+    <tableColumn id="9" name="knn_ed" dataDxfId="26"/>
+    <tableColumn id="10" name="knn_dtw" dataDxfId="25"/>
+    <tableColumn id="12" name="knn_msm" dataDxfId="24"/>
+    <tableColumn id="13" name="pforest" dataDxfId="23"/>
+    <tableColumn id="14" name="ls" dataDxfId="22"/>
+    <tableColumn id="15" name="st" dataDxfId="21"/>
+    <tableColumn id="16" name="tsf" dataDxfId="20"/>
+    <tableColumn id="17" name="weasel" dataDxfId="19"/>
+    <tableColumn id="18" name="boss" dataDxfId="18"/>
+    <tableColumn id="19" name="inception" dataDxfId="17"/>
+    <tableColumn id="20" name="finished_algo" dataDxfId="16">
+      <calculatedColumnFormula>SUM(F2:O2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1092,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3775,7 +4411,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3785,27 +4421,27 @@
         <f>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <v>62</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>249</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>601</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="2">
         <v>3</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3815,57 +4451,57 @@
         <f>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <v>17</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>249</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>601</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="2">
         <v>3</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I94" s="8" t="s">
+      <c r="I94" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="6" t="s">
+      <c r="A95" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="B95" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="C95" s="7" t="b">
         <f>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2">
         <v>25000</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="2">
         <v>25000</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="2">
         <v>600</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="2">
         <v>10</v>
       </c>
-      <c r="H95" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>201</v>
+      <c r="H95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3875,27 +4511,27 @@
         <f>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
         <v>30000</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <v>20000</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <v>30</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="2">
         <v>10</v>
       </c>
-      <c r="H96" t="s">
-        <v>1</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>200</v>
+      <c r="H96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="A97" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3905,27 +4541,27 @@
         <f>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
         <v>67</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
         <v>1029</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <v>24</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="2">
         <v>2</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I97" s="8" t="s">
+      <c r="I97" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3935,27 +4571,27 @@
         <f>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="2">
         <v>270</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
         <v>370</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <v>29</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="2">
         <v>9</v>
       </c>
-      <c r="H98" t="s">
-        <v>1</v>
-      </c>
-      <c r="I98" s="8" t="s">
+      <c r="H98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I98" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3965,22 +4601,22 @@
         <f>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>375</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="2">
         <v>375</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
         <v>720</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="2">
         <v>3</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I99" s="8" t="s">
+      <c r="I99" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6356,11 +6992,5755 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C179">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P180"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="10" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="15">
+        <f t="shared" ref="P2:P33" si="0">SUM(F2:O2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11">
+        <f t="shared" ref="P34:P65" si="1">SUM(F34:O34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11">
+        <f t="shared" ref="P66:P98" si="2">SUM(F66:O66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11">
+        <f>SUM(F96:O96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11">
+        <f t="shared" ref="P99:P130" si="3">SUM(F99:O99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C120" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C121" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A125" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" s="14" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C128" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A131" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11">
+        <f t="shared" ref="P131:P162" si="4">SUM(F131:O131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A132" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C132" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C134" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C138" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B139" s="11"/>
+      <c r="C139" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C140" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A141" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C141" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A145" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C145" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C146" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A151" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C151" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A152" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A153" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C153" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C154" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C155" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C156" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A157" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C157" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+      <c r="P157" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C158" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C160" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+      <c r="O160" s="11"/>
+      <c r="P160" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A161" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C161" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B162" s="11"/>
+      <c r="C162" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A163" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C163" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="11"/>
+      <c r="M163" s="11"/>
+      <c r="N163" s="11"/>
+      <c r="O163" s="11"/>
+      <c r="P163" s="11">
+        <f t="shared" ref="P163:P194" si="5">SUM(F163:O163)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A164" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C164" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="11"/>
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+      <c r="O164" s="11"/>
+      <c r="P164" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A165" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C165" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+      <c r="O165" s="11"/>
+      <c r="P165" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A166" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C166" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+      <c r="O166" s="11"/>
+      <c r="P166" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A167" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C167" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A168" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C168" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="11"/>
+      <c r="L168" s="11"/>
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+      <c r="O168" s="11"/>
+      <c r="P168" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169" s="11"/>
+      <c r="C169" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="11"/>
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C170" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="11"/>
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+      <c r="O170" s="11"/>
+      <c r="P170" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A171" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C171" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="L171" s="11"/>
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+      <c r="O171" s="11"/>
+      <c r="P171" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A172" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C172" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A173" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C173" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A174" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C174" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A175" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C175" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A176" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C176" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
+      <c r="P176" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A177" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C177" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="11"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="11"/>
+      <c r="P177" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A178" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C178" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+      <c r="O178" s="11"/>
+      <c r="P178" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A179" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C179" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A180" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C180" s="12" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="11"/>
+      <c r="O180" s="11"/>
+      <c r="P180" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C93 C101:C180">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94:C100">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datasets_metadata.xlsx
+++ b/Datasets_metadata.xlsx
@@ -810,6 +810,139 @@
   </cellStyles>
   <dxfs count="32">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1071,6 +1204,227 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1089,360 +1443,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1464,18 +1464,18 @@
     <sortCondition ref="A1:A179"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="dataset" dataDxfId="9"/>
-    <tableColumn id="7" name="uea_ucr" dataDxfId="8"/>
-    <tableColumn id="8" name="in_both" dataDxfId="7">
+    <tableColumn id="1" name="dataset" dataDxfId="29"/>
+    <tableColumn id="7" name="uea_ucr" dataDxfId="28"/>
+    <tableColumn id="8" name="in_both" dataDxfId="27">
       <calculatedColumnFormula>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="train_size" dataDxfId="6"/>
-    <tableColumn id="3" name="test_size" dataDxfId="5"/>
-    <tableColumn id="4" name="length" dataDxfId="4"/>
-    <tableColumn id="5" name="num_classes" dataDxfId="3"/>
-    <tableColumn id="6" name="type" dataDxfId="2"/>
-    <tableColumn id="11" name="dim" dataDxfId="1"/>
-    <tableColumn id="10" name="num_dim" dataDxfId="0"/>
+    <tableColumn id="2" name="train_size" dataDxfId="26"/>
+    <tableColumn id="3" name="test_size" dataDxfId="25"/>
+    <tableColumn id="4" name="length" dataDxfId="24"/>
+    <tableColumn id="5" name="num_classes" dataDxfId="23"/>
+    <tableColumn id="6" name="type" dataDxfId="22"/>
+    <tableColumn id="11" name="dim" dataDxfId="21"/>
+    <tableColumn id="10" name="num_dim" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1494,24 +1494,24 @@
     <sortCondition ref="A1:A179"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="dataset" dataDxfId="31"/>
-    <tableColumn id="7" name="uea_ucr" dataDxfId="30"/>
-    <tableColumn id="8" name="in_both" dataDxfId="29">
+    <tableColumn id="1" name="dataset" dataDxfId="15"/>
+    <tableColumn id="7" name="uea_ucr" dataDxfId="14"/>
+    <tableColumn id="8" name="in_both" dataDxfId="13">
       <calculatedColumnFormula>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="type" dataDxfId="28"/>
-    <tableColumn id="11" name="dim" dataDxfId="27"/>
-    <tableColumn id="9" name="knn_ed" dataDxfId="26"/>
-    <tableColumn id="10" name="knn_dtw" dataDxfId="25"/>
-    <tableColumn id="12" name="knn_msm" dataDxfId="24"/>
-    <tableColumn id="13" name="pforest" dataDxfId="23"/>
-    <tableColumn id="14" name="ls" dataDxfId="22"/>
-    <tableColumn id="15" name="st" dataDxfId="21"/>
-    <tableColumn id="16" name="tsf" dataDxfId="20"/>
-    <tableColumn id="17" name="weasel" dataDxfId="19"/>
-    <tableColumn id="18" name="boss" dataDxfId="18"/>
-    <tableColumn id="19" name="inception" dataDxfId="17"/>
-    <tableColumn id="20" name="finished_algo" dataDxfId="16">
+    <tableColumn id="6" name="type" dataDxfId="12"/>
+    <tableColumn id="11" name="dim" dataDxfId="11"/>
+    <tableColumn id="9" name="knn_ed" dataDxfId="10"/>
+    <tableColumn id="10" name="knn_dtw" dataDxfId="9"/>
+    <tableColumn id="12" name="knn_msm" dataDxfId="8"/>
+    <tableColumn id="13" name="pforest" dataDxfId="7"/>
+    <tableColumn id="14" name="ls" dataDxfId="6"/>
+    <tableColumn id="15" name="st" dataDxfId="5"/>
+    <tableColumn id="16" name="tsf" dataDxfId="4"/>
+    <tableColumn id="17" name="weasel" dataDxfId="3"/>
+    <tableColumn id="18" name="boss" dataDxfId="2"/>
+    <tableColumn id="19" name="inception" dataDxfId="1"/>
+    <tableColumn id="20" name="finished_algo" dataDxfId="0">
       <calculatedColumnFormula>SUM(F2:O2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J121" sqref="A121:J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7587,10 +7587,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C179">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13323,18 +13323,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C93 C101:C180">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:C100">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Datasets_metadata.xlsx
+++ b/Datasets_metadata.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismail\Desktop\OVGU\DKE Subjects\Master-Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alo/Documents/master-thesis/Master-Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81E6AEF-582B-A340-9175-F3F64F2BC8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33000" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="228">
   <si>
     <t>AbnormalHeartbeat</t>
   </si>
@@ -694,16 +704,38 @@
   </si>
   <si>
     <t>num_dim</t>
+  </si>
+  <si>
+    <t>long data points with tsf</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>error in files leakage</t>
+  </si>
+  <si>
+    <t>dataset not found and throw an error</t>
+  </si>
+  <si>
+    <t>exclude as length not determined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -789,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -804,11 +836,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1358,6 +1394,28 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1458,60 +1516,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J179" totalsRowShown="0">
-  <autoFilter ref="A1:J179"/>
-  <sortState ref="A2:H179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K179" totalsRowShown="0">
+  <autoFilter ref="A1:K179" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H179">
     <sortCondition ref="A1:A179"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" name="dataset" dataDxfId="29"/>
-    <tableColumn id="7" name="uea_ucr" dataDxfId="28"/>
-    <tableColumn id="8" name="in_both" dataDxfId="27">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="dataset" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="uea_ucr" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="in_both" dataDxfId="28">
       <calculatedColumnFormula>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="train_size" dataDxfId="26"/>
-    <tableColumn id="3" name="test_size" dataDxfId="25"/>
-    <tableColumn id="4" name="length" dataDxfId="24"/>
-    <tableColumn id="5" name="num_classes" dataDxfId="23"/>
-    <tableColumn id="6" name="type" dataDxfId="22"/>
-    <tableColumn id="11" name="dim" dataDxfId="21"/>
-    <tableColumn id="10" name="num_dim" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="train_size" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="test_size" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="length" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="num_classes" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="type" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="dim" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="num_dim" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{1F098CA9-8AE9-7A48-BAC3-68B66A9FD438}" name="Column1" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:P180" totalsRowShown="0">
-  <autoFilter ref="A1:P180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:P180" totalsRowShown="0">
+  <autoFilter ref="A1:P180" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="Univariate"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:H179">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H179">
     <sortCondition ref="A1:A179"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="dataset" dataDxfId="15"/>
-    <tableColumn id="7" name="uea_ucr" dataDxfId="14"/>
-    <tableColumn id="8" name="in_both" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="dataset" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="uea_ucr" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="in_both" dataDxfId="13">
       <calculatedColumnFormula>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="type" dataDxfId="12"/>
-    <tableColumn id="11" name="dim" dataDxfId="11"/>
-    <tableColumn id="9" name="knn_ed" dataDxfId="10"/>
-    <tableColumn id="10" name="knn_dtw" dataDxfId="9"/>
-    <tableColumn id="12" name="knn_msm" dataDxfId="8"/>
-    <tableColumn id="13" name="pforest" dataDxfId="7"/>
-    <tableColumn id="14" name="ls" dataDxfId="6"/>
-    <tableColumn id="15" name="st" dataDxfId="5"/>
-    <tableColumn id="16" name="tsf" dataDxfId="4"/>
-    <tableColumn id="17" name="weasel" dataDxfId="3"/>
-    <tableColumn id="18" name="boss" dataDxfId="2"/>
-    <tableColumn id="19" name="inception" dataDxfId="1"/>
-    <tableColumn id="20" name="finished_algo" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="type" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="dim" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="knn_ed" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="knn_dtw" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="knn_msm" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="pforest" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ls" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="st" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="tsf" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="weasel" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="boss" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="inception" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="finished_algo" dataDxfId="0">
       <calculatedColumnFormula>SUM(F2:O2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1781,27 +1846,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J121" sqref="A121:J121"/>
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
@@ -1832,8 +1898,11 @@
       <c r="J1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1859,8 +1928,9 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1892,8 +1962,9 @@
       <c r="J3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1925,9 +1996,10 @@
       <c r="J4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1958,9 +2030,12 @@
       <c r="J5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="K5" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1991,9 +2066,12 @@
       <c r="J6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="K6" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2024,8 +2102,11 @@
       <c r="J7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2057,8 +2138,9 @@
       <c r="J8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2090,9 +2172,10 @@
       <c r="J9" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4"/>
@@ -2117,9 +2200,12 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="K10" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4"/>
@@ -2144,9 +2230,12 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="K11" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4"/>
@@ -2171,9 +2260,12 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="K12" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4"/>
@@ -2198,9 +2290,12 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="K13" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4"/>
@@ -2225,9 +2320,12 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="K14" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4"/>
@@ -2252,8 +2350,11 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -2285,8 +2386,9 @@
       <c r="J16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2318,8 +2420,9 @@
       <c r="J17" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2351,8 +2454,9 @@
       <c r="J18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2488,9 @@
       <c r="J19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -2411,8 +2516,9 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -2444,8 +2550,9 @@
       <c r="J21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -2477,8 +2584,9 @@
       <c r="J22" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -2510,8 +2618,9 @@
       <c r="J23" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -2537,8 +2646,9 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
@@ -2570,8 +2680,9 @@
       <c r="J25" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -2603,8 +2714,9 @@
       <c r="J26" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
@@ -2636,8 +2748,9 @@
       <c r="J27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2669,9 +2782,10 @@
       <c r="J28" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2702,8 +2816,9 @@
       <c r="J29" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
@@ -2735,8 +2850,9 @@
       <c r="J30" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -2762,8 +2878,9 @@
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
@@ -2795,8 +2912,9 @@
       <c r="J32" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -2822,8 +2940,9 @@
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
@@ -2855,8 +2974,9 @@
       <c r="J34" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
@@ -2888,8 +3008,9 @@
       <c r="J35" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
@@ -2921,8 +3042,9 @@
       <c r="J36" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
@@ -2954,8 +3076,9 @@
       <c r="J37" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
@@ -2987,8 +3110,9 @@
       <c r="J38" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
@@ -3020,8 +3144,9 @@
       <c r="J39" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
@@ -3053,8 +3178,9 @@
       <c r="J40" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
@@ -3086,8 +3212,9 @@
       <c r="J41" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
@@ -3119,8 +3246,9 @@
       <c r="J42" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
@@ -3152,8 +3280,9 @@
       <c r="J43" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
@@ -3185,8 +3314,9 @@
       <c r="J44" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
@@ -3218,8 +3348,9 @@
       <c r="J45" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
@@ -3251,8 +3382,9 @@
       <c r="J46" s="4">
         <v>1345</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
@@ -3278,8 +3410,9 @@
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
@@ -3311,8 +3444,9 @@
       <c r="J48" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>57</v>
       </c>
@@ -3344,8 +3478,9 @@
       <c r="J49" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>58</v>
       </c>
@@ -3377,8 +3512,9 @@
       <c r="J50" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
@@ -3410,8 +3546,9 @@
       <c r="J51" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
@@ -3443,8 +3580,9 @@
       <c r="J52" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
@@ -3468,8 +3606,9 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>62</v>
       </c>
@@ -3501,8 +3640,9 @@
       <c r="J54" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>63</v>
       </c>
@@ -3534,8 +3674,9 @@
       <c r="J55" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>65</v>
       </c>
@@ -3567,8 +3708,9 @@
       <c r="J56" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
@@ -3600,8 +3742,9 @@
       <c r="J57" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>67</v>
       </c>
@@ -3633,8 +3776,9 @@
       <c r="J58" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>68</v>
       </c>
@@ -3666,8 +3810,9 @@
       <c r="J59" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>70</v>
       </c>
@@ -3699,8 +3844,9 @@
       <c r="J60" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>71</v>
       </c>
@@ -3726,8 +3872,9 @@
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>73</v>
       </c>
@@ -3759,9 +3906,10 @@
       <c r="J62" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3792,8 +3940,11 @@
       <c r="J63" s="4">
         <v>144</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>75</v>
       </c>
@@ -3825,8 +3976,9 @@
       <c r="J64" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>76</v>
       </c>
@@ -3858,8 +4010,9 @@
       <c r="J65" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>77</v>
       </c>
@@ -3891,8 +4044,9 @@
       <c r="J66" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>78</v>
       </c>
@@ -3924,8 +4078,9 @@
       <c r="J67" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>79</v>
       </c>
@@ -3957,8 +4112,9 @@
       <c r="J68" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>80</v>
       </c>
@@ -3990,8 +4146,9 @@
       <c r="J69" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>81</v>
       </c>
@@ -4023,8 +4180,9 @@
       <c r="J70" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>82</v>
       </c>
@@ -4056,8 +4214,9 @@
       <c r="J71" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>83</v>
       </c>
@@ -4089,8 +4248,9 @@
       <c r="J72" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>84</v>
       </c>
@@ -4116,8 +4276,9 @@
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>85</v>
       </c>
@@ -4149,8 +4310,9 @@
       <c r="J74" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>86</v>
       </c>
@@ -4182,8 +4344,9 @@
       <c r="J75" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>87</v>
       </c>
@@ -4215,8 +4378,9 @@
       <c r="J76" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>88</v>
       </c>
@@ -4248,9 +4412,10 @@
       <c r="J77" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -4281,9 +4446,12 @@
       <c r="J78" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="K78" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -4314,8 +4482,11 @@
       <c r="J79" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>91</v>
       </c>
@@ -4347,8 +4518,9 @@
       <c r="J80" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>92</v>
       </c>
@@ -4380,8 +4552,9 @@
       <c r="J81" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>93</v>
       </c>
@@ -4413,8 +4586,9 @@
       <c r="J82" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>94</v>
       </c>
@@ -4446,8 +4620,9 @@
       <c r="J83" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>95</v>
       </c>
@@ -4479,8 +4654,9 @@
       <c r="J84" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>96</v>
       </c>
@@ -4512,8 +4688,9 @@
       <c r="J85" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>97</v>
       </c>
@@ -4545,8 +4722,9 @@
       <c r="J86" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>98</v>
       </c>
@@ -4578,8 +4756,9 @@
       <c r="J87" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>99</v>
       </c>
@@ -4611,8 +4790,9 @@
       <c r="J88" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>100</v>
       </c>
@@ -4644,8 +4824,9 @@
       <c r="J89" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>101</v>
       </c>
@@ -4677,8 +4858,9 @@
       <c r="J90" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>102</v>
       </c>
@@ -4710,8 +4892,9 @@
       <c r="J91" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>103</v>
       </c>
@@ -4743,8 +4926,9 @@
       <c r="J92" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>104</v>
       </c>
@@ -4776,8 +4960,9 @@
       <c r="J93" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>106</v>
       </c>
@@ -4809,8 +4994,9 @@
       <c r="J94" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>199</v>
       </c>
@@ -4842,8 +5028,9 @@
       <c r="J95" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>108</v>
       </c>
@@ -4875,8 +5062,9 @@
       <c r="J96" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>109</v>
       </c>
@@ -4908,8 +5096,9 @@
       <c r="J97" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>110</v>
       </c>
@@ -4941,8 +5130,9 @@
       <c r="J98" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>111</v>
       </c>
@@ -4974,8 +5164,9 @@
       <c r="J99" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>112</v>
       </c>
@@ -5007,8 +5198,9 @@
       <c r="J100" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>113</v>
       </c>
@@ -5040,8 +5232,9 @@
       <c r="J101" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>114</v>
       </c>
@@ -5073,8 +5266,9 @@
       <c r="J102" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>115</v>
       </c>
@@ -5106,8 +5300,9 @@
       <c r="J103" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>116</v>
       </c>
@@ -5139,8 +5334,9 @@
       <c r="J104" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>117</v>
       </c>
@@ -5172,8 +5368,9 @@
       <c r="J105" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>118</v>
       </c>
@@ -5205,8 +5402,9 @@
       <c r="J106" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>119</v>
       </c>
@@ -5238,8 +5436,9 @@
       <c r="J107" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>121</v>
       </c>
@@ -5271,8 +5470,9 @@
       <c r="J108" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>122</v>
       </c>
@@ -5304,8 +5504,9 @@
       <c r="J109" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>123</v>
       </c>
@@ -5337,8 +5538,9 @@
       <c r="J110" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>124</v>
       </c>
@@ -5370,8 +5572,9 @@
       <c r="J111" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>125</v>
       </c>
@@ -5403,8 +5606,9 @@
       <c r="J112" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>126</v>
       </c>
@@ -5430,8 +5634,9 @@
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>127</v>
       </c>
@@ -5463,8 +5668,9 @@
       <c r="J114" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>128</v>
       </c>
@@ -5496,8 +5702,9 @@
       <c r="J115" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>129</v>
       </c>
@@ -5529,9 +5736,10 @@
       <c r="J116" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -5562,9 +5770,10 @@
       <c r="J117" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -5595,8 +5804,9 @@
       <c r="J118" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>132</v>
       </c>
@@ -5628,8 +5838,9 @@
       <c r="J119" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>133</v>
       </c>
@@ -5661,8 +5872,9 @@
       <c r="J120" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>134</v>
       </c>
@@ -5694,8 +5906,9 @@
       <c r="J121" s="4">
         <v>963</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>136</v>
       </c>
@@ -5727,8 +5940,9 @@
       <c r="J122" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>137</v>
       </c>
@@ -5760,8 +5974,9 @@
       <c r="J123" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>138</v>
       </c>
@@ -5793,8 +6008,9 @@
       <c r="J124" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>140</v>
       </c>
@@ -5826,9 +6042,10 @@
       <c r="J125" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -5859,8 +6076,11 @@
       <c r="J126" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K126" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>142</v>
       </c>
@@ -5892,8 +6112,9 @@
       <c r="J127" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>144</v>
       </c>
@@ -5925,8 +6146,9 @@
       <c r="J128" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>145</v>
       </c>
@@ -5958,9 +6180,10 @@
       <c r="J129" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
         <v>146</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -5991,8 +6214,11 @@
       <c r="J130" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K130" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>147</v>
       </c>
@@ -6024,8 +6250,9 @@
       <c r="J131" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>148</v>
       </c>
@@ -6057,8 +6284,9 @@
       <c r="J132" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>149</v>
       </c>
@@ -6090,8 +6318,9 @@
       <c r="J133" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K133" s="4"/>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>150</v>
       </c>
@@ -6123,8 +6352,9 @@
       <c r="J134" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K134" s="4"/>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>151</v>
       </c>
@@ -6156,8 +6386,9 @@
       <c r="J135" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K135" s="4"/>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>152</v>
       </c>
@@ -6189,8 +6420,9 @@
       <c r="J136" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>153</v>
       </c>
@@ -6222,8 +6454,9 @@
       <c r="J137" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>154</v>
       </c>
@@ -6249,8 +6482,9 @@
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>155</v>
       </c>
@@ -6282,8 +6516,9 @@
       <c r="J139" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K139" s="4"/>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>156</v>
       </c>
@@ -6315,8 +6550,9 @@
       <c r="J140" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K140" s="4"/>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>157</v>
       </c>
@@ -6348,8 +6584,9 @@
       <c r="J141" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K141" s="4"/>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>158</v>
       </c>
@@ -6381,8 +6618,9 @@
       <c r="J142" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K142" s="4"/>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>159</v>
       </c>
@@ -6414,8 +6652,9 @@
       <c r="J143" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K143" s="4"/>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>160</v>
       </c>
@@ -6447,8 +6686,9 @@
       <c r="J144" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K144" s="4"/>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>161</v>
       </c>
@@ -6480,9 +6720,10 @@
       <c r="J145" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
+      <c r="K145" s="4"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="10" t="s">
         <v>162</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -6513,8 +6754,11 @@
       <c r="J146" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K146" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>163</v>
       </c>
@@ -6546,8 +6790,9 @@
       <c r="J147" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K147" s="4"/>
+    </row>
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>164</v>
       </c>
@@ -6579,8 +6824,9 @@
       <c r="J148" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K148" s="4"/>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>165</v>
       </c>
@@ -6606,8 +6852,9 @@
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K149" s="4"/>
+    </row>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>167</v>
       </c>
@@ -6639,8 +6886,9 @@
       <c r="J150" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K150" s="4"/>
+    </row>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>168</v>
       </c>
@@ -6672,8 +6920,9 @@
       <c r="J151" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K151" s="4"/>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>169</v>
       </c>
@@ -6705,8 +6954,9 @@
       <c r="J152" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K152" s="4"/>
+    </row>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>170</v>
       </c>
@@ -6738,9 +6988,10 @@
       <c r="J153" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
+      <c r="K153" s="4"/>
+    </row>
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="10" t="s">
         <v>171</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -6771,8 +7022,11 @@
       <c r="J154" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K154" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>173</v>
       </c>
@@ -6804,9 +7058,10 @@
       <c r="J155" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
+      <c r="K155" s="4"/>
+    </row>
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="10" t="s">
         <v>174</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -6837,8 +7092,11 @@
       <c r="J156" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K156" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>175</v>
       </c>
@@ -6870,8 +7128,9 @@
       <c r="J157" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K157" s="4"/>
+    </row>
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>176</v>
       </c>
@@ -6903,8 +7162,9 @@
       <c r="J158" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K158" s="4"/>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>177</v>
       </c>
@@ -6936,8 +7196,9 @@
       <c r="J159" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K159" s="4"/>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>178</v>
       </c>
@@ -6969,8 +7230,9 @@
       <c r="J160" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K160" s="4"/>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>179</v>
       </c>
@@ -6996,8 +7258,9 @@
       </c>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K161" s="4"/>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>180</v>
       </c>
@@ -7029,8 +7292,9 @@
       <c r="J162" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K162" s="4"/>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>181</v>
       </c>
@@ -7062,8 +7326,9 @@
       <c r="J163" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K163" s="4"/>
+    </row>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>182</v>
       </c>
@@ -7095,8 +7360,9 @@
       <c r="J164" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K164" s="4"/>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>183</v>
       </c>
@@ -7128,8 +7394,9 @@
       <c r="J165" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K165" s="4"/>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>184</v>
       </c>
@@ -7161,8 +7428,9 @@
       <c r="J166" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K166" s="4"/>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>185</v>
       </c>
@@ -7194,8 +7462,9 @@
       <c r="J167" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K167" s="4"/>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>186</v>
       </c>
@@ -7221,8 +7490,9 @@
       </c>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K168" s="4"/>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>187</v>
       </c>
@@ -7254,8 +7524,9 @@
       <c r="J169" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K169" s="4"/>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>188</v>
       </c>
@@ -7287,8 +7558,9 @@
       <c r="J170" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K170" s="4"/>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>189</v>
       </c>
@@ -7320,8 +7592,9 @@
       <c r="J171" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K171" s="4"/>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>190</v>
       </c>
@@ -7353,8 +7626,9 @@
       <c r="J172" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K172" s="4"/>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>191</v>
       </c>
@@ -7386,8 +7660,9 @@
       <c r="J173" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K173" s="4"/>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>192</v>
       </c>
@@ -7419,8 +7694,9 @@
       <c r="J174" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K174" s="4"/>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>193</v>
       </c>
@@ -7452,8 +7728,9 @@
       <c r="J175" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K175" s="4"/>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>194</v>
       </c>
@@ -7485,8 +7762,9 @@
       <c r="J176" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K176" s="4"/>
+    </row>
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>195</v>
       </c>
@@ -7518,8 +7796,9 @@
       <c r="J177" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K177" s="4"/>
+    </row>
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>196</v>
       </c>
@@ -7551,8 +7830,9 @@
       <c r="J178" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K178" s="4"/>
+    </row>
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>197</v>
       </c>
@@ -7584,17 +7864,19 @@
       <c r="J179" s="4">
         <v>1</v>
       </c>
+      <c r="K179" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C179">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -7602,30 +7884,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
@@ -7675,7 +7957,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7703,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7735,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -7767,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -7799,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -7831,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -7863,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -7895,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -7927,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -7955,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -7983,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -8011,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -8039,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -8067,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -8095,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -8127,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -8159,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -8191,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -8223,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -8251,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -8283,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -8315,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -8347,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -8375,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
@@ -8407,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -8439,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
@@ -8471,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
@@ -8503,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
@@ -8535,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
@@ -8567,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -8595,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
@@ -8627,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -8655,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
@@ -8687,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
@@ -8719,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
@@ -8751,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
@@ -8783,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
@@ -8815,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
@@ -8847,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
@@ -8879,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
@@ -8911,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
@@ -8943,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
@@ -8975,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
@@ -9007,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
@@ -9039,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
@@ -9071,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
@@ -9099,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
@@ -9131,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>57</v>
       </c>
@@ -9163,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>58</v>
       </c>
@@ -9195,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
@@ -9227,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
@@ -9259,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
@@ -9285,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>62</v>
       </c>
@@ -9317,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>63</v>
       </c>
@@ -9349,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>65</v>
       </c>
@@ -9381,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
@@ -9413,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>67</v>
       </c>
@@ -9445,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>68</v>
       </c>
@@ -9477,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>70</v>
       </c>
@@ -9509,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>71</v>
       </c>
@@ -9537,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>73</v>
       </c>
@@ -9569,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>74</v>
       </c>
@@ -9601,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>75</v>
       </c>
@@ -9633,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>76</v>
       </c>
@@ -9665,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>77</v>
       </c>
@@ -9697,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>78</v>
       </c>
@@ -9729,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>79</v>
       </c>
@@ -9761,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>80</v>
       </c>
@@ -9793,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>81</v>
       </c>
@@ -9825,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>82</v>
       </c>
@@ -9857,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>83</v>
       </c>
@@ -9889,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>84</v>
       </c>
@@ -9917,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>85</v>
       </c>
@@ -9949,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>86</v>
       </c>
@@ -9981,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>87</v>
       </c>
@@ -10013,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>88</v>
       </c>
@@ -10045,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>89</v>
       </c>
@@ -10077,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>90</v>
       </c>
@@ -10109,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>91</v>
       </c>
@@ -10141,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>92</v>
       </c>
@@ -10173,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>93</v>
       </c>
@@ -10205,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>94</v>
       </c>
@@ -10237,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>95</v>
       </c>
@@ -10269,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>96</v>
       </c>
@@ -10301,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>97</v>
       </c>
@@ -10333,7 +10615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>98</v>
       </c>
@@ -10365,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>99</v>
       </c>
@@ -10397,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>100</v>
       </c>
@@ -10429,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>101</v>
       </c>
@@ -10461,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>102</v>
       </c>
@@ -10493,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>103</v>
       </c>
@@ -10525,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>104</v>
       </c>
@@ -10557,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>106</v>
       </c>
@@ -10589,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>107</v>
       </c>
@@ -10621,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>199</v>
       </c>
@@ -10653,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>108</v>
       </c>
@@ -10685,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>109</v>
       </c>
@@ -10717,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>110</v>
       </c>
@@ -10749,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>111</v>
       </c>
@@ -10781,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>112</v>
       </c>
@@ -10813,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>113</v>
       </c>
@@ -10845,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>114</v>
       </c>
@@ -10877,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>115</v>
       </c>
@@ -10909,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>116</v>
       </c>
@@ -10941,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>117</v>
       </c>
@@ -10973,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>118</v>
       </c>
@@ -11005,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>119</v>
       </c>
@@ -11037,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>121</v>
       </c>
@@ -11069,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>122</v>
       </c>
@@ -11101,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>123</v>
       </c>
@@ -11133,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>124</v>
       </c>
@@ -11165,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>125</v>
       </c>
@@ -11197,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>126</v>
       </c>
@@ -11225,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>127</v>
       </c>
@@ -11257,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>128</v>
       </c>
@@ -11289,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>129</v>
       </c>
@@ -11321,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>130</v>
       </c>
@@ -11353,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>131</v>
       </c>
@@ -11385,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>132</v>
       </c>
@@ -11417,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>133</v>
       </c>
@@ -11449,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>134</v>
       </c>
@@ -11481,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>136</v>
       </c>
@@ -11513,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>137</v>
       </c>
@@ -11545,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>138</v>
       </c>
@@ -11577,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>140</v>
       </c>
@@ -11609,7 +11891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>141</v>
       </c>
@@ -11641,7 +11923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>142</v>
       </c>
@@ -11673,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>144</v>
       </c>
@@ -11705,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>145</v>
       </c>
@@ -11737,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>146</v>
       </c>
@@ -11769,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>147</v>
       </c>
@@ -11801,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>148</v>
       </c>
@@ -11833,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>149</v>
       </c>
@@ -11865,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>150</v>
       </c>
@@ -11897,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>151</v>
       </c>
@@ -11929,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>152</v>
       </c>
@@ -11961,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>153</v>
       </c>
@@ -11993,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>154</v>
       </c>
@@ -12021,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>155</v>
       </c>
@@ -12053,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>156</v>
       </c>
@@ -12085,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>157</v>
       </c>
@@ -12117,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>158</v>
       </c>
@@ -12149,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>159</v>
       </c>
@@ -12181,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>160</v>
       </c>
@@ -12213,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>161</v>
       </c>
@@ -12245,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>162</v>
       </c>
@@ -12277,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>163</v>
       </c>
@@ -12309,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>164</v>
       </c>
@@ -12341,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>165</v>
       </c>
@@ -12369,7 +12651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>167</v>
       </c>
@@ -12401,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>168</v>
       </c>
@@ -12433,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>169</v>
       </c>
@@ -12465,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>170</v>
       </c>
@@ -12497,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>171</v>
       </c>
@@ -12529,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>173</v>
       </c>
@@ -12561,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>174</v>
       </c>
@@ -12593,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>175</v>
       </c>
@@ -12625,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>176</v>
       </c>
@@ -12657,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>177</v>
       </c>
@@ -12689,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>178</v>
       </c>
@@ -12721,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>179</v>
       </c>
@@ -12749,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>180</v>
       </c>
@@ -12781,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>181</v>
       </c>
@@ -12813,7 +13095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>182</v>
       </c>
@@ -12845,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>183</v>
       </c>
@@ -12877,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>184</v>
       </c>
@@ -12909,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>185</v>
       </c>
@@ -12941,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>186</v>
       </c>
@@ -12969,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>187</v>
       </c>
@@ -13001,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>188</v>
       </c>
@@ -13033,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>189</v>
       </c>
@@ -13065,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>190</v>
       </c>
@@ -13097,7 +13379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>191</v>
       </c>
@@ -13129,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>192</v>
       </c>
@@ -13161,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>193</v>
       </c>
@@ -13193,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>194</v>
       </c>
@@ -13225,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>195</v>
       </c>
@@ -13257,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>196</v>
       </c>
@@ -13289,7 +13571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>197</v>
       </c>

--- a/Datasets_metadata.xlsx
+++ b/Datasets_metadata.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="224">
   <si>
     <t>AbnormalHeartbeat</t>
   </si>
@@ -694,6 +695,9 @@
   </si>
   <si>
     <t>num_dim</t>
+  </si>
+  <si>
+    <t>balanced</t>
   </si>
 </sst>
 </file>
@@ -789,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -804,11 +808,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1164,46 +1231,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1424,26 +1451,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1459,23 +1466,48 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J179" totalsRowShown="0">
-  <autoFilter ref="A1:J179"/>
-  <sortState ref="A2:H179">
-    <sortCondition ref="A1:A179"/>
+  <autoFilter ref="A1:J179">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="AUDIO"/>
+        <filter val="DEVICE"/>
+        <filter val="ECG"/>
+        <filter val="EEG"/>
+        <filter val="EOG"/>
+        <filter val="EPG"/>
+        <filter val="HAR"/>
+        <filter val="HEMODYNAMICS"/>
+        <filter val="MISC"/>
+        <filter val="OTHER"/>
+        <filter val="SENSOR"/>
+        <filter val="SOUND"/>
+        <filter val="SPECTRO"/>
+        <filter val="SPEECH"/>
+        <filter val="Traffic"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A3:J175">
+    <sortCondition ref="B1:B179"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="dataset" dataDxfId="29"/>
-    <tableColumn id="7" name="uea_ucr" dataDxfId="28"/>
-    <tableColumn id="8" name="in_both" dataDxfId="27">
+    <tableColumn id="1" name="dataset" dataDxfId="31"/>
+    <tableColumn id="7" name="uea_ucr" dataDxfId="30"/>
+    <tableColumn id="8" name="in_both" dataDxfId="29">
       <calculatedColumnFormula>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="train_size" dataDxfId="26"/>
-    <tableColumn id="3" name="test_size" dataDxfId="25"/>
-    <tableColumn id="4" name="length" dataDxfId="24"/>
-    <tableColumn id="5" name="num_classes" dataDxfId="23"/>
-    <tableColumn id="6" name="type" dataDxfId="22"/>
-    <tableColumn id="11" name="dim" dataDxfId="21"/>
-    <tableColumn id="10" name="num_dim" dataDxfId="20"/>
+    <tableColumn id="2" name="train_size" dataDxfId="28"/>
+    <tableColumn id="3" name="test_size" dataDxfId="27"/>
+    <tableColumn id="4" name="length" dataDxfId="26"/>
+    <tableColumn id="5" name="num_classes" dataDxfId="25"/>
+    <tableColumn id="6" name="type" dataDxfId="24"/>
+    <tableColumn id="11" name="dim" dataDxfId="23"/>
+    <tableColumn id="10" name="num_dim" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1494,26 +1526,49 @@
     <sortCondition ref="A1:A179"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="dataset" dataDxfId="15"/>
-    <tableColumn id="7" name="uea_ucr" dataDxfId="14"/>
-    <tableColumn id="8" name="in_both" dataDxfId="13">
+    <tableColumn id="1" name="dataset" dataDxfId="21"/>
+    <tableColumn id="7" name="uea_ucr" dataDxfId="20"/>
+    <tableColumn id="8" name="in_both" dataDxfId="19">
       <calculatedColumnFormula>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="type" dataDxfId="12"/>
-    <tableColumn id="11" name="dim" dataDxfId="11"/>
-    <tableColumn id="9" name="knn_ed" dataDxfId="10"/>
-    <tableColumn id="10" name="knn_dtw" dataDxfId="9"/>
-    <tableColumn id="12" name="knn_msm" dataDxfId="8"/>
-    <tableColumn id="13" name="pforest" dataDxfId="7"/>
-    <tableColumn id="14" name="ls" dataDxfId="6"/>
-    <tableColumn id="15" name="st" dataDxfId="5"/>
-    <tableColumn id="16" name="tsf" dataDxfId="4"/>
-    <tableColumn id="17" name="weasel" dataDxfId="3"/>
-    <tableColumn id="18" name="boss" dataDxfId="2"/>
-    <tableColumn id="19" name="inception" dataDxfId="1"/>
-    <tableColumn id="20" name="finished_algo" dataDxfId="0">
+    <tableColumn id="6" name="type" dataDxfId="18"/>
+    <tableColumn id="11" name="dim" dataDxfId="17"/>
+    <tableColumn id="9" name="knn_ed" dataDxfId="16"/>
+    <tableColumn id="10" name="knn_dtw" dataDxfId="15"/>
+    <tableColumn id="12" name="knn_msm" dataDxfId="14"/>
+    <tableColumn id="13" name="pforest" dataDxfId="13"/>
+    <tableColumn id="14" name="ls" dataDxfId="12"/>
+    <tableColumn id="15" name="st" dataDxfId="11"/>
+    <tableColumn id="16" name="tsf" dataDxfId="10"/>
+    <tableColumn id="17" name="weasel" dataDxfId="9"/>
+    <tableColumn id="18" name="boss" dataDxfId="8"/>
+    <tableColumn id="19" name="inception" dataDxfId="7"/>
+    <tableColumn id="20" name="finished_algo" dataDxfId="6">
       <calculatedColumnFormula>SUM(F2:O2)</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K88" totalsRowShown="0">
+  <autoFilter ref="A1:K88"/>
+  <sortState ref="A2:K88">
+    <sortCondition ref="A1:A88"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" name="dataset"/>
+    <tableColumn id="2" name="uea_ucr"/>
+    <tableColumn id="3" name="in_both"/>
+    <tableColumn id="4" name="train_size"/>
+    <tableColumn id="5" name="test_size"/>
+    <tableColumn id="6" name="length"/>
+    <tableColumn id="7" name="num_classes"/>
+    <tableColumn id="8" name="type"/>
+    <tableColumn id="9" name="dim"/>
+    <tableColumn id="10" name="num_dim"/>
+    <tableColumn id="11" name="balanced"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1782,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J121" sqref="A121:J121"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,6 +1854,7 @@
     <col min="8" max="8" width="15.21875" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1833,7 +1889,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1959,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1992,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2025,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2058,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2091,7 +2147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -2118,7 +2174,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -2145,7 +2201,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -2172,7 +2228,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -2199,7 +2255,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -2226,7 +2282,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2352,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -2385,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -2412,7 +2468,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -2445,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -2511,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -2538,7 +2594,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
@@ -2571,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -2637,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2736,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -2796,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -2823,7 +2879,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
@@ -2855,8 +2911,9 @@
       <c r="J34" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
@@ -2888,8 +2945,9 @@
       <c r="J35" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
@@ -2921,8 +2979,9 @@
       <c r="J36" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
@@ -2954,8 +3013,9 @@
       <c r="J37" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
@@ -2987,8 +3047,9 @@
       <c r="J38" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
@@ -3020,8 +3081,9 @@
       <c r="J39" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
@@ -3053,8 +3115,9 @@
       <c r="J40" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
@@ -3086,8 +3149,9 @@
       <c r="J41" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
@@ -3119,8 +3183,9 @@
       <c r="J42" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
@@ -3152,8 +3217,9 @@
       <c r="J43" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
@@ -3185,8 +3251,9 @@
       <c r="J44" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
@@ -3218,8 +3285,9 @@
       <c r="J45" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
@@ -3251,8 +3319,9 @@
       <c r="J46" s="4">
         <v>1345</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
@@ -3279,7 +3348,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
@@ -3411,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
@@ -3444,7 +3513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
@@ -3700,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>71</v>
       </c>
@@ -3727,7 +3796,7 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>73</v>
       </c>
@@ -3793,7 +3862,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>75</v>
       </c>
@@ -3826,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>76</v>
       </c>
@@ -3859,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>77</v>
       </c>
@@ -3925,7 +3994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>79</v>
       </c>
@@ -4090,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>84</v>
       </c>
@@ -4150,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>86</v>
       </c>
@@ -4183,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>87</v>
       </c>
@@ -4216,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>88</v>
       </c>
@@ -4249,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>89</v>
       </c>
@@ -4282,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>90</v>
       </c>
@@ -4315,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>91</v>
       </c>
@@ -4348,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>92</v>
       </c>
@@ -4381,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>93</v>
       </c>
@@ -4414,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>94</v>
       </c>
@@ -4513,7 +4582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>97</v>
       </c>
@@ -4579,7 +4648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>99</v>
       </c>
@@ -4645,7 +4714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>101</v>
       </c>
@@ -4711,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>103</v>
       </c>
@@ -4812,23 +4881,23 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C95" s="7" t="b">
+        <v>108</v>
+      </c>
+      <c r="C95" s="5" t="b">
         <f>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D95" s="5">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="E95" s="5">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="F95" s="5">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="G95" s="5">
         <v>10</v>
@@ -4837,31 +4906,31 @@
         <v>1</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J95" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C96" s="5" t="b">
+        <v>199</v>
+      </c>
+      <c r="C96" s="7" t="b">
         <f>IF(Table1[[#This Row],[dataset]]=Table1[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D96" s="5">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="E96" s="5">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F96" s="5">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="G96" s="5">
         <v>10</v>
@@ -4870,10 +4939,10 @@
         <v>1</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J96" s="4">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -5107,7 +5176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>116</v>
       </c>
@@ -5173,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>118</v>
       </c>
@@ -5239,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>121</v>
       </c>
@@ -5272,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>122</v>
       </c>
@@ -5305,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>123</v>
       </c>
@@ -5338,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>124</v>
       </c>
@@ -5371,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>125</v>
       </c>
@@ -5404,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>126</v>
       </c>
@@ -5629,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>133</v>
       </c>
@@ -5695,7 +5764,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>136</v>
       </c>
@@ -5728,7 +5797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>137</v>
       </c>
@@ -5794,7 +5863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>140</v>
       </c>
@@ -6058,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>149</v>
       </c>
@@ -6091,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>150</v>
       </c>
@@ -6124,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>151</v>
       </c>
@@ -6223,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>154</v>
       </c>
@@ -6514,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>163</v>
       </c>
@@ -6547,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>164</v>
       </c>
@@ -6580,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>165</v>
       </c>
@@ -6640,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>168</v>
       </c>
@@ -6871,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>176</v>
       </c>
@@ -6904,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>177</v>
       </c>
@@ -6937,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>178</v>
       </c>
@@ -6970,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>179</v>
       </c>
@@ -6997,7 +7066,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>180</v>
       </c>
@@ -7030,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>181</v>
       </c>
@@ -7129,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>184</v>
       </c>
@@ -7162,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>185</v>
       </c>
@@ -7195,7 +7264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>186</v>
       </c>
@@ -7255,7 +7324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>188</v>
       </c>
@@ -7288,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>189</v>
       </c>
@@ -7321,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>190</v>
       </c>
@@ -7354,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>191</v>
       </c>
@@ -7453,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>194</v>
       </c>
@@ -7486,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>195</v>
       </c>
@@ -7519,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>196</v>
       </c>
@@ -7552,7 +7621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>197</v>
       </c>
@@ -7587,10 +7656,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C179">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13323,18 +13392,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C93 C101:C180">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:C100">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13343,4 +13412,3116 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>1460</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>640</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>470</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>577</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>345</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>1380</v>
+      </c>
+      <c r="F8">
+        <v>1639</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>286</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
+      <c r="E10">
+        <v>250</v>
+      </c>
+      <c r="F10">
+        <v>720</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>108</v>
+      </c>
+      <c r="E11">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>1197</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <v>288</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>200</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>138</v>
+      </c>
+      <c r="F13">
+        <v>288</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>200</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>138</v>
+      </c>
+      <c r="F14">
+        <v>288</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>200</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>270</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15">
+        <v>1345</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>322</v>
+      </c>
+      <c r="E16">
+        <v>139</v>
+      </c>
+      <c r="F16">
+        <v>512</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>200</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>96</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>200</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18">
+        <v>4500</v>
+      </c>
+      <c r="F18">
+        <v>140</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>200</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>861</v>
+      </c>
+      <c r="F19">
+        <v>136</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>8926</v>
+      </c>
+      <c r="E20">
+        <v>7711</v>
+      </c>
+      <c r="F20">
+        <v>96</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>362</v>
+      </c>
+      <c r="E21">
+        <v>362</v>
+      </c>
+      <c r="F21">
+        <v>1250</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>362</v>
+      </c>
+      <c r="E22">
+        <v>362</v>
+      </c>
+      <c r="F22">
+        <v>1250</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>137</v>
+      </c>
+      <c r="E23">
+        <v>138</v>
+      </c>
+      <c r="F23">
+        <v>207</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>270</v>
+      </c>
+      <c r="F24">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>261</v>
+      </c>
+      <c r="E25">
+        <v>263</v>
+      </c>
+      <c r="F25">
+        <v>1751</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>504</v>
+      </c>
+      <c r="E26">
+        <v>500</v>
+      </c>
+      <c r="F26">
+        <v>1751</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>5890</v>
+      </c>
+      <c r="E27">
+        <v>3524</v>
+      </c>
+      <c r="F27">
+        <v>62</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27">
+        <v>144</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>316</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28">
+        <v>28</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3601</v>
+      </c>
+      <c r="E29">
+        <v>1320</v>
+      </c>
+      <c r="F29">
+        <v>500</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3636</v>
+      </c>
+      <c r="E30">
+        <v>810</v>
+      </c>
+      <c r="F30">
+        <v>500</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>200</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>150</v>
+      </c>
+      <c r="E31">
+        <v>2850</v>
+      </c>
+      <c r="F31">
+        <v>301</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>2850</v>
+      </c>
+      <c r="F32">
+        <v>301</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>200</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>186</v>
+      </c>
+      <c r="F33">
+        <v>201</v>
+      </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>109</v>
+      </c>
+      <c r="E34">
+        <v>105</v>
+      </c>
+      <c r="F34">
+        <v>431</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>200</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>160</v>
+      </c>
+      <c r="E35">
+        <v>74</v>
+      </c>
+      <c r="F35">
+        <v>400</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>150</v>
+      </c>
+      <c r="E36">
+        <v>850</v>
+      </c>
+      <c r="F36">
+        <v>152</v>
+      </c>
+      <c r="G36">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>204</v>
+      </c>
+      <c r="E37">
+        <v>205</v>
+      </c>
+      <c r="F37">
+        <v>405</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>201</v>
+      </c>
+      <c r="J37">
+        <v>61</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <v>101</v>
+      </c>
+      <c r="F38">
+        <v>3000</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>200</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>62</v>
+      </c>
+      <c r="E39">
+        <v>249</v>
+      </c>
+      <c r="F39">
+        <v>601</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" t="s">
+        <v>200</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>17</v>
+      </c>
+      <c r="E40">
+        <v>249</v>
+      </c>
+      <c r="F40">
+        <v>601</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" t="s">
+        <v>200</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>30000</v>
+      </c>
+      <c r="E41">
+        <v>20000</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>201</v>
+      </c>
+      <c r="J41">
+        <v>200</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>25000</v>
+      </c>
+      <c r="E42">
+        <v>25000</v>
+      </c>
+      <c r="F42">
+        <v>600</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>200</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>67</v>
+      </c>
+      <c r="E43">
+        <v>1029</v>
+      </c>
+      <c r="F43">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s">
+        <v>200</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>270</v>
+      </c>
+      <c r="E44">
+        <v>370</v>
+      </c>
+      <c r="F44">
+        <v>29</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>201</v>
+      </c>
+      <c r="J44">
+        <v>12</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>375</v>
+      </c>
+      <c r="E45">
+        <v>375</v>
+      </c>
+      <c r="F45">
+        <v>720</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>200</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>180</v>
+      </c>
+      <c r="E46">
+        <v>180</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>201</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>60</v>
+      </c>
+      <c r="E47">
+        <v>61</v>
+      </c>
+      <c r="F47">
+        <v>637</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
+        <v>200</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>70</v>
+      </c>
+      <c r="E48">
+        <v>73</v>
+      </c>
+      <c r="F48">
+        <v>319</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" t="s">
+        <v>200</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2459</v>
+      </c>
+      <c r="E49">
+        <v>2466</v>
+      </c>
+      <c r="F49">
+        <v>36</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" t="s">
+        <v>201</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>60</v>
+      </c>
+      <c r="E50">
+        <v>60</v>
+      </c>
+      <c r="F50">
+        <v>448</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>200</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1194</v>
+      </c>
+      <c r="E51">
+        <v>2439</v>
+      </c>
+      <c r="F51">
+        <v>24</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" t="s">
+        <v>200</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>1252</v>
+      </c>
+      <c r="F52">
+        <v>84</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s">
+        <v>200</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>278</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
+        <v>3000</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s">
+        <v>201</v>
+      </c>
+      <c r="J53">
+        <v>64</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>180</v>
+      </c>
+      <c r="E54">
+        <v>180</v>
+      </c>
+      <c r="F54">
+        <v>51</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" t="s">
+        <v>201</v>
+      </c>
+      <c r="J54">
+        <v>24</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1800</v>
+      </c>
+      <c r="E55">
+        <v>1965</v>
+      </c>
+      <c r="F55">
+        <v>750</v>
+      </c>
+      <c r="G55">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>200</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1800</v>
+      </c>
+      <c r="E56">
+        <v>1965</v>
+      </c>
+      <c r="F56">
+        <v>750</v>
+      </c>
+      <c r="G56">
+        <v>42</v>
+      </c>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>200</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57">
+        <v>570</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>200</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>267</v>
+      </c>
+      <c r="E58">
+        <v>173</v>
+      </c>
+      <c r="F58">
+        <v>144</v>
+      </c>
+      <c r="G58">
+        <v>7</v>
+      </c>
+      <c r="H58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I58" t="s">
+        <v>201</v>
+      </c>
+      <c r="J58">
+        <v>963</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>214</v>
+      </c>
+      <c r="E59">
+        <v>1896</v>
+      </c>
+      <c r="F59">
+        <v>1024</v>
+      </c>
+      <c r="G59">
+        <v>39</v>
+      </c>
+      <c r="H59" t="s">
+        <v>139</v>
+      </c>
+      <c r="I59" t="s">
+        <v>200</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>50</v>
+      </c>
+      <c r="E60">
+        <v>50</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" t="s">
+        <v>200</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>104</v>
+      </c>
+      <c r="E61">
+        <v>208</v>
+      </c>
+      <c r="F61">
+        <v>2000</v>
+      </c>
+      <c r="G61">
+        <v>52</v>
+      </c>
+      <c r="H61" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" t="s">
+        <v>200</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>104</v>
+      </c>
+      <c r="E62">
+        <v>208</v>
+      </c>
+      <c r="F62">
+        <v>2000</v>
+      </c>
+      <c r="G62">
+        <v>52</v>
+      </c>
+      <c r="H62" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" t="s">
+        <v>200</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>104</v>
+      </c>
+      <c r="E63">
+        <v>208</v>
+      </c>
+      <c r="F63">
+        <v>2000</v>
+      </c>
+      <c r="G63">
+        <v>52</v>
+      </c>
+      <c r="H63" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" t="s">
+        <v>200</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>537</v>
+      </c>
+      <c r="E64">
+        <v>537</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>200</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>105</v>
+      </c>
+      <c r="E65">
+        <v>105</v>
+      </c>
+      <c r="F65">
+        <v>144</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" t="s">
+        <v>200</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>180</v>
+      </c>
+      <c r="E66">
+        <v>180</v>
+      </c>
+      <c r="F66">
+        <v>144</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>200</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>151</v>
+      </c>
+      <c r="E67">
+        <v>152</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>201</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>375</v>
+      </c>
+      <c r="E68">
+        <v>375</v>
+      </c>
+      <c r="F68">
+        <v>720</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>200</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>50</v>
+      </c>
+      <c r="F69">
+        <v>2844</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>200</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>375</v>
+      </c>
+      <c r="E70">
+        <v>375</v>
+      </c>
+      <c r="F70">
+        <v>720</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>200</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>268</v>
+      </c>
+      <c r="E71">
+        <v>293</v>
+      </c>
+      <c r="F71">
+        <v>896</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71" t="s">
+        <v>201</v>
+      </c>
+      <c r="J71">
+        <v>6</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>200</v>
+      </c>
+      <c r="E72">
+        <v>180</v>
+      </c>
+      <c r="F72">
+        <v>1152</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72" t="s">
+        <v>201</v>
+      </c>
+      <c r="J72">
+        <v>7</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>300</v>
+      </c>
+      <c r="E73">
+        <v>600</v>
+      </c>
+      <c r="F73">
+        <v>1500</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>200</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>450</v>
+      </c>
+      <c r="E74">
+        <v>450</v>
+      </c>
+      <c r="F74">
+        <v>1500</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+      <c r="H74" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>200</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>450</v>
+      </c>
+      <c r="E75">
+        <v>450</v>
+      </c>
+      <c r="F75">
+        <v>1500</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>200</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>50</v>
+      </c>
+      <c r="E76">
+        <v>50</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" t="s">
+        <v>200</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>375</v>
+      </c>
+      <c r="E77">
+        <v>375</v>
+      </c>
+      <c r="F77">
+        <v>720</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s">
+        <v>200</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>601</v>
+      </c>
+      <c r="F78">
+        <v>70</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" t="s">
+        <v>200</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>27</v>
+      </c>
+      <c r="E79">
+        <v>953</v>
+      </c>
+      <c r="F79">
+        <v>65</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" t="s">
+        <v>200</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>6599</v>
+      </c>
+      <c r="E80">
+        <v>2199</v>
+      </c>
+      <c r="F80">
+        <v>93</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>172</v>
+      </c>
+      <c r="I80" t="s">
+        <v>201</v>
+      </c>
+      <c r="J80">
+        <v>13</v>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>15</v>
+      </c>
+      <c r="F81">
+        <v>2500</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s">
+        <v>201</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1000</v>
+      </c>
+      <c r="E82">
+        <v>8236</v>
+      </c>
+      <c r="F82">
+        <v>1024</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" t="s">
+        <v>200</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>613</v>
+      </c>
+      <c r="E83">
+        <v>370</v>
+      </c>
+      <c r="F83">
+        <v>235</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" t="s">
+        <v>200</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84">
+        <v>100</v>
+      </c>
+      <c r="F84">
+        <v>275</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84" t="s">
+        <v>200</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>23</v>
+      </c>
+      <c r="E85">
+        <v>1139</v>
+      </c>
+      <c r="F85">
+        <v>82</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>200</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>2238</v>
+      </c>
+      <c r="E86">
+        <v>2241</v>
+      </c>
+      <c r="F86">
+        <v>315</v>
+      </c>
+      <c r="G86">
+        <v>8</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" t="s">
+        <v>201</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1000</v>
+      </c>
+      <c r="E87">
+        <v>6164</v>
+      </c>
+      <c r="F87">
+        <v>152</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>30</v>
+      </c>
+      <c r="I87" t="s">
+        <v>200</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>57</v>
+      </c>
+      <c r="E88">
+        <v>54</v>
+      </c>
+      <c r="F88">
+        <v>234</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" t="s">
+        <v>200</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Datasets_metadata.xlsx
+++ b/Datasets_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alo/Documents/master-thesis/Master-Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0446FCAC-8CE8-5746-8E48-7AE987CA0125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574ADC55-5FFB-7A4B-8D22-4A1EBDA7C8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="228">
   <si>
     <t>AbnormalHeartbeat</t>
   </si>
@@ -704,19 +704,22 @@
     <t>10% failed</t>
   </si>
   <si>
-    <t>RuntimeError: No shapelets were extracted in fit that exceeded the minimum information gain threshold. Please retry with other data and/or parameter settings.</t>
-  </si>
-  <si>
     <t>change min window</t>
   </si>
   <si>
     <t>100% failed, use defaule split</t>
   </si>
   <si>
-    <t>Liblinear failed to converge, increase the number of iterations.</t>
-  </si>
-  <si>
-    <t>large  number of dimensions, for weasel Liblinear failed to converge, increase the number of iterations.</t>
+    <t>it runs as no cv for weasel and I should run 100 %</t>
+  </si>
+  <si>
+    <t>run 100 for weasel</t>
+  </si>
+  <si>
+    <t>default_split</t>
+  </si>
+  <si>
+    <t>run next for weasel, after adding more the chunks</t>
   </si>
 </sst>
 </file>
@@ -831,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -852,6 +855,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,6 +1480,24 @@
         <filter val="TRUE"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="AUDIO"/>
+        <filter val="DEVICE"/>
+        <filter val="ECG"/>
+        <filter val="EEG"/>
+        <filter val="EOG"/>
+        <filter val="EPG"/>
+        <filter val="HAR"/>
+        <filter val="HEMODYNAMICS"/>
+        <filter val="MISC"/>
+        <filter val="OTHER"/>
+        <filter val="SENSOR"/>
+        <filter val="SOUND"/>
+        <filter val="SPECTRO"/>
+        <filter val="SPEECH"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E179">
     <sortCondition ref="A1:A179"/>
@@ -1854,7 +1878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7689,8 +7713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7803,7 +7827,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -7831,7 +7855,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -7859,7 +7883,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -7887,7 +7911,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -7915,7 +7939,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -7943,7 +7967,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -8140,10 +8164,12 @@
         <v>1</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="4"/>
     </row>
@@ -8192,24 +8218,28 @@
       <c r="E18" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -8261,7 +8291,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -8289,7 +8319,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -8341,11 +8371,15 @@
       <c r="H23" s="4">
         <v>1</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23" s="4"/>
     </row>
@@ -8373,7 +8407,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
@@ -8401,7 +8435,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -8429,7 +8463,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
@@ -8464,10 +8498,10 @@
         <v>3</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
@@ -8559,13 +8593,15 @@
       <c r="H30" s="4">
         <v>1</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
       <c r="J30" s="4">
         <v>1</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L30" s="4"/>
     </row>
@@ -8681,7 +8717,7 @@
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
@@ -8709,7 +8745,7 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
@@ -8737,7 +8773,7 @@
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
@@ -8765,7 +8801,7 @@
       </c>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
@@ -8793,7 +8829,7 @@
       </c>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
@@ -8821,7 +8857,7 @@
       </c>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
@@ -8849,7 +8885,7 @@
       </c>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
@@ -8877,7 +8913,7 @@
       </c>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
@@ -8929,11 +8965,15 @@
       <c r="H43" s="4">
         <v>1</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
       <c r="K43" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L43" s="4"/>
     </row>
@@ -8966,10 +9006,12 @@
       <c r="I44" s="4">
         <v>1</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
       <c r="K44" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L44" s="4"/>
     </row>
@@ -8990,7 +9032,9 @@
       <c r="E45" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
       <c r="G45" s="4">
         <v>1</v>
       </c>
@@ -9000,43 +9044,47 @@
       <c r="I45" s="4">
         <v>1</v>
       </c>
-      <c r="J45" s="4"/>
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
       <c r="K45" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="5" t="b">
-        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="C46" s="7" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>225</v>
+        <v>1</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -9090,10 +9138,12 @@
       <c r="I48" s="4">
         <v>1</v>
       </c>
-      <c r="J48" s="4"/>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
       <c r="K48" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L48" s="4"/>
     </row>
@@ -9191,7 +9241,7 @@
       </c>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
@@ -9276,7 +9326,7 @@
         <v>4</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -9388,14 +9438,16 @@
       <c r="E58" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="4"/>
     </row>
@@ -9491,7 +9543,7 @@
       </c>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>73</v>
       </c>
@@ -9520,7 +9572,7 @@
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -9550,10 +9602,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>75</v>
       </c>
@@ -9581,7 +9633,7 @@
       </c>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>76</v>
       </c>
@@ -9609,7 +9661,7 @@
       </c>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>77</v>
       </c>
@@ -9665,7 +9717,7 @@
       </c>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>79</v>
       </c>
@@ -9720,10 +9772,12 @@
       <c r="I69" s="4">
         <v>1</v>
       </c>
-      <c r="J69" s="4"/>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
       <c r="K69" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L69" s="4"/>
     </row>
@@ -9754,10 +9808,12 @@
       <c r="I70" s="4">
         <v>1</v>
       </c>
-      <c r="J70" s="4"/>
+      <c r="J70" s="4">
+        <v>1</v>
+      </c>
       <c r="K70" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>220</v>
@@ -9790,10 +9846,12 @@
       <c r="I71" s="4">
         <v>1</v>
       </c>
-      <c r="J71" s="4"/>
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
       <c r="K71" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L71" s="4"/>
     </row>
@@ -9814,7 +9872,9 @@
       <c r="E72" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F72" s="4"/>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
       <c r="G72" s="4">
         <v>1</v>
       </c>
@@ -9824,10 +9884,12 @@
       <c r="I72" s="4">
         <v>1</v>
       </c>
-      <c r="J72" s="4"/>
+      <c r="J72" s="4">
+        <v>1</v>
+      </c>
       <c r="K72" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L72" s="4"/>
     </row>
@@ -9889,7 +9951,7 @@
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>86</v>
       </c>
@@ -9917,7 +9979,7 @@
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>87</v>
       </c>
@@ -9945,7 +10007,7 @@
       </c>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>88</v>
       </c>
@@ -9973,7 +10035,7 @@
       </c>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>89</v>
       </c>
@@ -10001,7 +10063,7 @@
       </c>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>90</v>
       </c>
@@ -10029,7 +10091,7 @@
       </c>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>91</v>
       </c>
@@ -10057,7 +10119,7 @@
       </c>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>92</v>
       </c>
@@ -10085,7 +10147,7 @@
       </c>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>93</v>
       </c>
@@ -10113,7 +10175,7 @@
       </c>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>94</v>
       </c>
@@ -10207,7 +10269,7 @@
       </c>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>97</v>
       </c>
@@ -10263,7 +10325,7 @@
       </c>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>99</v>
       </c>
@@ -10292,7 +10354,7 @@
       <c r="L88" s="4"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -10320,10 +10382,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>101</v>
       </c>
@@ -10387,7 +10449,7 @@
       </c>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>103</v>
       </c>
@@ -10600,13 +10662,15 @@
       <c r="I98" s="4">
         <v>1</v>
       </c>
-      <c r="J98" s="4"/>
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
       <c r="K98" s="4">
         <f t="shared" ref="K98:K129" si="3">SUM(F98:J98)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -10640,7 +10704,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -10736,10 +10800,12 @@
       <c r="I102" s="4">
         <v>1</v>
       </c>
-      <c r="J102" s="4"/>
+      <c r="J102" s="4">
+        <v>1</v>
+      </c>
       <c r="K102" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>221</v>
@@ -10772,10 +10838,12 @@
       <c r="I103" s="4">
         <v>1</v>
       </c>
-      <c r="J103" s="4"/>
+      <c r="J103" s="4">
+        <v>1</v>
+      </c>
       <c r="K103" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L103" s="4"/>
     </row>
@@ -10807,7 +10875,7 @@
       </c>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>116</v>
       </c>
@@ -10871,7 +10939,7 @@
       </c>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>118</v>
       </c>
@@ -10899,7 +10967,7 @@
       </c>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>119</v>
       </c>
@@ -10932,10 +11000,10 @@
         <v>2</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>121</v>
       </c>
@@ -10963,7 +11031,7 @@
       </c>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>122</v>
       </c>
@@ -10991,7 +11059,7 @@
       </c>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>123</v>
       </c>
@@ -11019,7 +11087,7 @@
       </c>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>124</v>
       </c>
@@ -11047,7 +11115,7 @@
       </c>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>125</v>
       </c>
@@ -11128,15 +11196,17 @@
       <c r="I115" s="4">
         <v>1</v>
       </c>
-      <c r="J115" s="4"/>
+      <c r="J115" s="4">
+        <v>1</v>
+      </c>
       <c r="K115" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L115" s="4"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -11156,15 +11226,15 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -11195,7 +11265,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L117" s="4"/>
+      <c r="L117" s="6" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
@@ -11309,7 +11381,7 @@
       </c>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>133</v>
       </c>
@@ -11338,7 +11410,7 @@
       <c r="L121" s="4"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -11366,10 +11438,10 @@
         <v>0</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>136</v>
       </c>
@@ -11397,7 +11469,7 @@
       </c>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>137</v>
       </c>
@@ -11512,10 +11584,12 @@
       <c r="I127" s="4">
         <v>1</v>
       </c>
-      <c r="J127" s="4"/>
+      <c r="J127" s="4">
+        <v>1</v>
+      </c>
       <c r="K127" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L127" s="4"/>
     </row>
@@ -11678,10 +11752,12 @@
       <c r="I132" s="4">
         <v>1</v>
       </c>
-      <c r="J132" s="4"/>
+      <c r="J132" s="4">
+        <v>1</v>
+      </c>
       <c r="K132" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L132" s="4"/>
     </row>
@@ -11723,7 +11799,7 @@
       </c>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>149</v>
       </c>
@@ -11751,7 +11827,7 @@
       </c>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>150</v>
       </c>
@@ -11779,7 +11855,7 @@
       </c>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>151</v>
       </c>
@@ -12162,14 +12238,16 @@
       <c r="I147" s="4">
         <v>1</v>
       </c>
-      <c r="J147" s="4"/>
+      <c r="J147" s="4">
+        <v>1</v>
+      </c>
       <c r="K147" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>163</v>
       </c>
@@ -12197,7 +12275,7 @@
       </c>
       <c r="L148" s="4"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>164</v>
       </c>
@@ -12285,7 +12363,7 @@
       </c>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>168</v>
       </c>
@@ -12342,10 +12420,12 @@
       <c r="I153" s="4">
         <v>1</v>
       </c>
-      <c r="J153" s="4"/>
+      <c r="J153" s="4">
+        <v>1</v>
+      </c>
       <c r="K153" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L153" s="4"/>
     </row>
@@ -12378,45 +12458,49 @@
       <c r="I154" s="4">
         <v>1</v>
       </c>
-      <c r="J154" s="4"/>
+      <c r="J154" s="4">
+        <v>1</v>
+      </c>
       <c r="K154" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+    <row r="155" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C155" s="5" t="b">
-        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D155" s="4" t="s">
+      <c r="C155" s="7" t="b">
+        <f>IF(Table13[[#This Row],[dataset]]=Table13[[#This Row],[uea_ucr]],TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E155" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4">
-        <v>0</v>
-      </c>
-      <c r="H155" s="4">
-        <v>0</v>
-      </c>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4">
+      <c r="F155" s="6"/>
+      <c r="G155" s="6">
+        <v>0</v>
+      </c>
+      <c r="H155" s="6">
+        <v>0</v>
+      </c>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6">
+        <v>0</v>
+      </c>
+      <c r="K155" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L155" s="4" t="s">
-        <v>222</v>
+      <c r="L155" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -12523,7 +12607,7 @@
       </c>
       <c r="L158" s="4"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>176</v>
       </c>
@@ -12551,7 +12635,7 @@
       </c>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>177</v>
       </c>
@@ -12579,7 +12663,7 @@
       </c>
       <c r="L160" s="4"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>178</v>
       </c>
@@ -12631,7 +12715,7 @@
       </c>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>180</v>
       </c>
@@ -12659,7 +12743,7 @@
       </c>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>181</v>
       </c>
@@ -12714,10 +12798,12 @@
       <c r="I165" s="4">
         <v>1</v>
       </c>
-      <c r="J165" s="4"/>
+      <c r="J165" s="4">
+        <v>1</v>
+      </c>
       <c r="K165" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L165" s="4"/>
     </row>
@@ -12755,7 +12841,7 @@
       </c>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>184</v>
       </c>
@@ -12783,7 +12869,7 @@
       </c>
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>185</v>
       </c>
@@ -12863,7 +12949,7 @@
       </c>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>188</v>
       </c>
@@ -12891,7 +12977,7 @@
       </c>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>189</v>
       </c>
@@ -12919,7 +13005,7 @@
       </c>
       <c r="L172" s="4"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>190</v>
       </c>
@@ -12947,7 +13033,7 @@
       </c>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>191</v>
       </c>
@@ -13002,10 +13088,12 @@
       <c r="I175" s="4">
         <v>1</v>
       </c>
-      <c r="J175" s="4"/>
+      <c r="J175" s="4">
+        <v>1</v>
+      </c>
       <c r="K175" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L175" s="4"/>
     </row>
@@ -13045,7 +13133,7 @@
       </c>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>194</v>
       </c>
@@ -13073,7 +13161,7 @@
       </c>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>195</v>
       </c>
@@ -13101,7 +13189,7 @@
       </c>
       <c r="L178" s="4"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>196</v>
       </c>
@@ -13129,7 +13217,7 @@
       </c>
       <c r="L179" s="4"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>197</v>
       </c>
@@ -13186,8 +13274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13521,7 +13609,7 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
@@ -13732,7 +13820,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B16" t="s">
@@ -13767,7 +13855,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B17" t="s">
@@ -13802,7 +13890,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
@@ -14081,38 +14169,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16">
         <v>60</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="16">
         <v>40</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="16">
         <v>270</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="16">
         <v>5</v>
       </c>
-      <c r="H26" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="16">
         <v>1345</v>
       </c>
-      <c r="K26" t="b">
+      <c r="K26" s="16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14991,38 +15079,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="16">
         <v>204</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="16">
         <v>205</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="16">
         <v>405</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="16">
         <v>2</v>
       </c>
-      <c r="H52" t="s">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="H52" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="16">
         <v>61</v>
       </c>
-      <c r="K52" t="b">
+      <c r="K52" s="16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15131,38 +15219,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="16">
         <v>267</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="16">
         <v>173</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="16">
         <v>144</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="16">
         <v>7</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="16">
         <v>963</v>
       </c>
-      <c r="K56" t="b">
+      <c r="K56" s="16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15236,38 +15324,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C59" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59">
+      <c r="C59" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="16">
         <v>278</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="16">
         <v>100</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="16">
         <v>3000</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="16">
         <v>2</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="16">
         <v>64</v>
       </c>
-      <c r="K59" t="b">
+      <c r="K59" s="16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16111,38 +16199,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C84" t="b">
-        <v>1</v>
-      </c>
-      <c r="D84">
+      <c r="C84" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" s="16">
         <v>5890</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="16">
         <v>3524</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="16">
         <v>62</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="16">
         <v>2</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="16">
         <v>144</v>
       </c>
-      <c r="K84" t="b">
+      <c r="K84" s="16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16251,38 +16339,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C88" t="b">
-        <v>1</v>
-      </c>
-      <c r="D88">
+      <c r="C88" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88" s="16">
         <v>30000</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="16">
         <v>20000</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="16">
         <v>30</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="16">
         <v>10</v>
       </c>
-      <c r="H88" t="s">
-        <v>1</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="H88" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="J88">
-        <v>200</v>
-      </c>
-      <c r="K88" t="b">
+      <c r="J88" s="16">
+        <v>200</v>
+      </c>
+      <c r="K88" s="16" t="b">
         <v>1</v>
       </c>
     </row>
